--- a/mobi_client/mobi_client/mobi_config/has_limit_state_excel/999_全局变量配置.xlsx
+++ b/mobi_client/mobi_client/mobi_config/has_limit_state_excel/999_全局变量配置.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MobiGame\01_source\mobi_client\mobi_client\mobi_config\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="14340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17325" windowHeight="25140"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalParam" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="208">
   <si>
     <t>id</t>
   </si>
@@ -225,6 +230,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -235,6 +241,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -245,6 +252,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -255,6 +263,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -265,6 +274,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -275,6 +285,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -285,6 +296,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -295,6 +307,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -305,6 +318,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -315,6 +329,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -325,6 +340,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -335,6 +351,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -345,6 +362,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -390,6 +408,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -400,6 +419,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -470,7 +490,7 @@
     <t>KEY_BATTLE_LAYOUT_FORMATION</t>
   </si>
   <si>
-    <t>-1|-1|-1|-1|101|-1|-1|103|11</t>
+    <t>-1|-1|-1|105|103|11|-1|101|-1</t>
   </si>
   <si>
     <t>战斗初始阵容</t>
@@ -526,6 +546,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -536,6 +557,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -551,6 +573,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -561,6 +584,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -576,6 +600,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -586,6 +611,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -832,18 +858,54 @@
   <si>
     <t>普通数字最大重复上限</t>
   </si>
+  <si>
+    <t>KEY_COMMON_PARTICLE_ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌融合通用微粒道具id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -856,6 +918,7 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -863,159 +926,40 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1042,198 +986,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.399304177983947"/>
+        <fgColor theme="3" tint="0.39927365947447124"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1256,261 +1020,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1520,31 +1042,31 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1583,64 +1105,26 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1927,16 +1411,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2231,7 +1716,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2248,7 +1733,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2265,7 +1750,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2282,7 +1767,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2299,7 +1784,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2316,7 +1801,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2333,7 +1818,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2350,7 +1835,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2367,7 +1852,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -2384,7 +1869,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -2402,7 +1887,7 @@
       </c>
       <c r="G26" s="18"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -2421,7 +1906,7 @@
       </c>
       <c r="G27" s="20"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -2458,7 +1943,7 @@
       <c r="G29" s="12"/>
       <c r="I29" s="22"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -2476,7 +1961,7 @@
       </c>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -2494,7 +1979,7 @@
       </c>
       <c r="G31" s="12"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:9">
       <c r="A32" s="17">
         <v>29</v>
       </c>
@@ -2602,7 +2087,7 @@
       </c>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:7">
       <c r="A38" s="17">
         <v>35</v>
       </c>
@@ -2619,7 +2104,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:7">
       <c r="A39" s="17">
         <v>36</v>
       </c>
@@ -2636,7 +2121,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:7">
       <c r="A40" s="17">
         <v>37</v>
       </c>
@@ -2653,7 +2138,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:7">
       <c r="A41" s="17">
         <v>38</v>
       </c>
@@ -2670,7 +2155,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -2687,7 +2172,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -2704,7 +2189,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -2721,7 +2206,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -2738,7 +2223,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -2755,7 +2240,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -2772,7 +2257,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -3100,7 +2585,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>202</v>
@@ -3115,9 +2600,26 @@
         <v>203</v>
       </c>
     </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>65</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="F68" s="25" t="s">
+        <v>207</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>